--- a/Jupyter Notebook/statistics.xlsx
+++ b/Jupyter Notebook/statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>Stategy Name</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Total Trading Days</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +561,7 @@
           <t>Test</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -608,6 +614,7 @@
           <t>Test</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -660,6 +667,7 @@
           <t>Test</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +720,7 @@
           <t>Test</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -764,6 +773,7 @@
           <t>Test</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -816,6 +826,7 @@
           <t>Test</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -868,6 +879,7 @@
           <t>Test</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -920,6 +932,7 @@
           <t>Test</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -971,6 +984,555 @@
         <is>
           <t>Test</t>
         </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65</v>
+      </c>
+      <c r="B11" t="n">
+        <v>109734.85</v>
+      </c>
+      <c r="C11" t="n">
+        <v>63</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.92%</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>9734.85</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>8.87%</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>451.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10861.65</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1126.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1126.8</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>96.92%</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65</v>
+      </c>
+      <c r="B12" t="n">
+        <v>109734.85</v>
+      </c>
+      <c r="C12" t="n">
+        <v>63</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.92%</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>9734.85</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>8.87%</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>451.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10861.65</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1126.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1126.8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>96.92%</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41</v>
+      </c>
+      <c r="B13" t="n">
+        <v>95420.99999999997</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.17%</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-4579</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-4.8%</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>815.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6414.05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1273.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-10993.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>73.17%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>179</v>
+      </c>
+      <c r="B14" t="n">
+        <v>96531.90000000008</v>
+      </c>
+      <c r="C14" t="n">
+        <v>74</v>
+      </c>
+      <c r="D14" t="n">
+        <v>105</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>41.34%</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-3468.1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-3.59%</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>815.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15348.45</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-509.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-18816.55</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>41.34%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>179</v>
+      </c>
+      <c r="B15" t="n">
+        <v>96531.90000000008</v>
+      </c>
+      <c r="C15" t="n">
+        <v>74</v>
+      </c>
+      <c r="D15" t="n">
+        <v>105</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>41.34%</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-3468.1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-3.59%</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>815.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15348.45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-509.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-18816.55</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>41.34%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>159</v>
+      </c>
+      <c r="B16" t="n">
+        <v>92175.95000000007</v>
+      </c>
+      <c r="C16" t="n">
+        <v>54</v>
+      </c>
+      <c r="D16" t="n">
+        <v>105</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>33.96%</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-7824.05</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-8.49%</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>532</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10304.45</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-477.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-18128.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>33.96%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>140</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90076.60000000003</v>
+      </c>
+      <c r="C17" t="n">
+        <v>41</v>
+      </c>
+      <c r="D17" t="n">
+        <v>99</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.29%</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-9923.4</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-11.02%</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>430.9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7627</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-477.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-17550.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>29.29%</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>194</v>
+      </c>
+      <c r="B18" t="n">
+        <v>92370.95000000004</v>
+      </c>
+      <c r="C18" t="n">
+        <v>70</v>
+      </c>
+      <c r="D18" t="n">
+        <v>124</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.08%</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-7629.05</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-8.26%</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>430.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7934.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-418.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-15563.35</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>36.08%</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35</v>
+      </c>
+      <c r="B19" t="n">
+        <v>98047.65000000002</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>27</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.86%</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-1952.35</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-1.99%</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>345</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1393.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-385</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-3346.25</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>22.86%</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36</v>
+      </c>
+      <c r="B20" t="n">
+        <v>100587.95</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>47.22%</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>587.95</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>345</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2797.85</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-355.95</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-2209.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>47.22%</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
